--- a/pred_ohlcv/54/2019-10-15 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-15 BAT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>254</v>
       </c>
       <c r="F2" t="n">
-        <v>829.21</v>
+        <v>138.1791</v>
       </c>
       <c r="G2" t="n">
-        <v>253.3666666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>254</v>
       </c>
       <c r="F3" t="n">
-        <v>2602.273</v>
+        <v>829.21</v>
       </c>
       <c r="G3" t="n">
-        <v>253.35</v>
+        <v>253.3666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C4" t="n">
         <v>254</v>
@@ -469,15 +480,18 @@
         <v>254</v>
       </c>
       <c r="E4" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.2391</v>
+        <v>2602.273</v>
       </c>
       <c r="G4" t="n">
-        <v>253.3166666666667</v>
+        <v>253.35</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,25 +500,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F5" t="n">
-        <v>30023.3764</v>
+        <v>1014.2391</v>
       </c>
       <c r="G5" t="n">
-        <v>253.3</v>
+        <v>253.3166666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F6" t="n">
-        <v>21851.4726</v>
+        <v>30023.3764</v>
       </c>
       <c r="G6" t="n">
-        <v>253.3333333333333</v>
+        <v>253.3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>256</v>
       </c>
       <c r="C7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" t="n">
         <v>256</v>
       </c>
       <c r="E7" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F7" t="n">
-        <v>2803.96048125</v>
+        <v>21851.4726</v>
       </c>
       <c r="G7" t="n">
-        <v>253.3666666666667</v>
+        <v>253.3333333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
         <v>255</v>
       </c>
       <c r="D8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
         <v>255</v>
       </c>
       <c r="F8" t="n">
-        <v>449.2165</v>
+        <v>2803.96048125</v>
       </c>
       <c r="G8" t="n">
-        <v>253.3833333333333</v>
+        <v>253.3666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E9" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" t="n">
-        <v>256.8671</v>
+        <v>449.2165</v>
       </c>
       <c r="G9" t="n">
-        <v>253.4166666666667</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>256</v>
       </c>
       <c r="F10" t="n">
-        <v>9826.58</v>
+        <v>256.8671</v>
       </c>
       <c r="G10" t="n">
-        <v>253.4666666666667</v>
+        <v>253.4166666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>256</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>9826.58</v>
       </c>
       <c r="G11" t="n">
-        <v>253.5166666666667</v>
+        <v>253.4666666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>256</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8686</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>253.55</v>
+        <v>253.5166666666667</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>256</v>
       </c>
       <c r="F13" t="n">
-        <v>2637.993</v>
+        <v>1.8686</v>
       </c>
       <c r="G13" t="n">
-        <v>253.6166666666667</v>
+        <v>253.55</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>256</v>
       </c>
       <c r="F14" t="n">
-        <v>5525.5109</v>
+        <v>2637.993</v>
       </c>
       <c r="G14" t="n">
-        <v>253.65</v>
+        <v>253.6166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>256</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>5525.5109</v>
       </c>
       <c r="G15" t="n">
-        <v>253.6833333333333</v>
+        <v>253.65</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" t="n">
-        <v>7378.5355</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>253.7333333333333</v>
+        <v>253.6833333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E17" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" t="n">
-        <v>3548.8139</v>
+        <v>7378.5355</v>
       </c>
       <c r="G17" t="n">
-        <v>253.8</v>
+        <v>253.7333333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>258</v>
       </c>
       <c r="F18" t="n">
-        <v>4153.0386</v>
+        <v>3548.8139</v>
       </c>
       <c r="G18" t="n">
-        <v>253.8666666666667</v>
+        <v>253.8</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>258</v>
       </c>
       <c r="F19" t="n">
-        <v>3218.7209</v>
+        <v>4153.0386</v>
       </c>
       <c r="G19" t="n">
-        <v>253.95</v>
+        <v>253.8666666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,18 +941,21 @@
         <v>258</v>
       </c>
       <c r="D20" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" t="n">
         <v>258</v>
       </c>
       <c r="F20" t="n">
-        <v>15283.7978</v>
+        <v>3218.7209</v>
       </c>
       <c r="G20" t="n">
-        <v>254.0166666666667</v>
+        <v>253.95</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C21" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D21" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E21" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" t="n">
-        <v>9632.3925</v>
+        <v>15283.7978</v>
       </c>
       <c r="G21" t="n">
-        <v>254.1333333333333</v>
+        <v>254.0166666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,10 +993,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>260</v>
+      </c>
+      <c r="C22" t="n">
         <v>261</v>
-      </c>
-      <c r="C22" t="n">
-        <v>260</v>
       </c>
       <c r="D22" t="n">
         <v>261</v>
@@ -940,12 +1005,15 @@
         <v>260</v>
       </c>
       <c r="F22" t="n">
-        <v>36522.8416</v>
+        <v>9632.3925</v>
       </c>
       <c r="G22" t="n">
-        <v>254.25</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" t="n">
         <v>260</v>
       </c>
       <c r="D23" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E23" t="n">
         <v>260</v>
       </c>
       <c r="F23" t="n">
-        <v>815</v>
+        <v>36522.8416</v>
       </c>
       <c r="G23" t="n">
-        <v>254.3666666666667</v>
+        <v>254.25</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>260</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D24" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E24" t="n">
         <v>260</v>
       </c>
       <c r="F24" t="n">
-        <v>81582.86659999999</v>
+        <v>815</v>
       </c>
       <c r="G24" t="n">
-        <v>254.4833333333333</v>
+        <v>254.3666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>260</v>
+      </c>
+      <c r="C25" t="n">
         <v>261</v>
       </c>
-      <c r="C25" t="n">
-        <v>259</v>
-      </c>
       <c r="D25" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F25" t="n">
-        <v>30879.3587</v>
+        <v>81582.86659999999</v>
       </c>
       <c r="G25" t="n">
-        <v>254.5666666666667</v>
+        <v>254.4833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,25 +1109,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C26" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" t="n">
-        <v>3213.83591954023</v>
+        <v>30879.3587</v>
       </c>
       <c r="G26" t="n">
-        <v>254.7166666666667</v>
+        <v>254.5666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1138,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D27" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E27" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F27" t="n">
-        <v>880.3088</v>
+        <v>3213.83591954023</v>
       </c>
       <c r="G27" t="n">
-        <v>254.8</v>
+        <v>254.7166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="n">
         <v>259</v>
       </c>
       <c r="D28" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F28" t="n">
-        <v>9894.507140916045</v>
+        <v>880.3088</v>
       </c>
       <c r="G28" t="n">
-        <v>254.8833333333333</v>
+        <v>254.8</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C29" t="n">
         <v>259</v>
       </c>
       <c r="D29" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E29" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F29" t="n">
-        <v>2398.2992</v>
+        <v>9894.507140916045</v>
       </c>
       <c r="G29" t="n">
-        <v>254.9666666666667</v>
+        <v>254.8833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>259</v>
       </c>
       <c r="F30" t="n">
-        <v>303.226</v>
+        <v>2398.2992</v>
       </c>
       <c r="G30" t="n">
-        <v>255.0666666666667</v>
+        <v>254.9666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.9277</v>
+        <v>303.226</v>
       </c>
       <c r="G31" t="n">
-        <v>255.1833333333333</v>
+        <v>255.0666666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>260</v>
       </c>
       <c r="C32" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D32" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" t="n">
         <v>260</v>
       </c>
       <c r="F32" t="n">
-        <v>878.7527</v>
+        <v>1415.9277</v>
       </c>
       <c r="G32" t="n">
-        <v>255.3333333333333</v>
+        <v>255.1833333333333</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,7 +1315,7 @@
         <v>260</v>
       </c>
       <c r="C33" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
         <v>261</v>
@@ -1226,12 +1324,15 @@
         <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>4532.2798</v>
+        <v>878.7527</v>
       </c>
       <c r="G33" t="n">
-        <v>255.45</v>
+        <v>255.3333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1246,18 +1347,21 @@
         <v>260</v>
       </c>
       <c r="D34" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E34" t="n">
         <v>260</v>
       </c>
       <c r="F34" t="n">
-        <v>2100.3434</v>
+        <v>4532.2798</v>
       </c>
       <c r="G34" t="n">
-        <v>255.5833333333333</v>
+        <v>255.45</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>260</v>
       </c>
       <c r="F35" t="n">
-        <v>582.0386</v>
+        <v>2100.3434</v>
       </c>
       <c r="G35" t="n">
-        <v>255.7166666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>260</v>
       </c>
       <c r="F36" t="n">
-        <v>5312.479</v>
+        <v>582.0386</v>
       </c>
       <c r="G36" t="n">
-        <v>255.8333333333333</v>
+        <v>255.7166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>260</v>
       </c>
       <c r="F37" t="n">
-        <v>1410.7171</v>
+        <v>5312.479</v>
       </c>
       <c r="G37" t="n">
-        <v>255.9666666666667</v>
+        <v>255.8333333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F38" t="n">
-        <v>2900.6781</v>
+        <v>1410.7171</v>
       </c>
       <c r="G38" t="n">
-        <v>256.1166666666667</v>
+        <v>255.9666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C39" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D39" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E39" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F39" t="n">
-        <v>3690.9038</v>
+        <v>2900.6781</v>
       </c>
       <c r="G39" t="n">
-        <v>256.2333333333333</v>
+        <v>256.1166666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" t="n">
         <v>260</v>
@@ -1405,15 +1524,18 @@
         <v>260</v>
       </c>
       <c r="E40" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" t="n">
-        <v>484.0461</v>
+        <v>3690.9038</v>
       </c>
       <c r="G40" t="n">
-        <v>256.3333333333333</v>
+        <v>256.2333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>2250.2085</v>
+        <v>484.0461</v>
       </c>
       <c r="G41" t="n">
-        <v>256.4166666666667</v>
+        <v>256.3333333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,21 +1576,24 @@
         <v>259</v>
       </c>
       <c r="C42" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E42" t="n">
         <v>259</v>
       </c>
       <c r="F42" t="n">
-        <v>39627.50217471264</v>
+        <v>2250.2085</v>
       </c>
       <c r="G42" t="n">
-        <v>256.5166666666667</v>
+        <v>256.4166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>259</v>
+      </c>
+      <c r="C43" t="n">
         <v>260</v>
-      </c>
-      <c r="C43" t="n">
-        <v>261</v>
       </c>
       <c r="D43" t="n">
         <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F43" t="n">
-        <v>4381.4175</v>
+        <v>39627.50217471264</v>
       </c>
       <c r="G43" t="n">
-        <v>256.65</v>
+        <v>256.5166666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>260</v>
+      </c>
+      <c r="C44" t="n">
         <v>261</v>
-      </c>
-      <c r="C44" t="n">
-        <v>258</v>
       </c>
       <c r="D44" t="n">
         <v>261</v>
       </c>
       <c r="E44" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>4381.4175</v>
       </c>
       <c r="G44" t="n">
-        <v>256.7</v>
+        <v>256.65</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C45" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D45" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E45" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F45" t="n">
-        <v>2444.3568</v>
+        <v>200</v>
       </c>
       <c r="G45" t="n">
-        <v>256.7666666666667</v>
+        <v>256.7</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E46" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F46" t="n">
-        <v>600.0625</v>
+        <v>2444.3568</v>
       </c>
       <c r="G46" t="n">
-        <v>256.8166666666667</v>
+        <v>256.7666666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>258</v>
       </c>
       <c r="F47" t="n">
-        <v>17186.5095</v>
+        <v>600.0625</v>
       </c>
       <c r="G47" t="n">
-        <v>256.8833333333333</v>
+        <v>256.8166666666667</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>258</v>
       </c>
       <c r="F48" t="n">
-        <v>256.2249</v>
+        <v>17186.5095</v>
       </c>
       <c r="G48" t="n">
-        <v>256.9666666666666</v>
+        <v>256.8833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C49" t="n">
         <v>258</v>
       </c>
       <c r="D49" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E49" t="n">
         <v>258</v>
       </c>
       <c r="F49" t="n">
-        <v>1886.923</v>
+        <v>256.2249</v>
       </c>
       <c r="G49" t="n">
-        <v>257.0666666666667</v>
+        <v>256.9666666666666</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>260</v>
       </c>
       <c r="C50" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50" t="n">
-        <v>5502.1612</v>
+        <v>1886.923</v>
       </c>
       <c r="G50" t="n">
-        <v>257.15</v>
+        <v>257.0666666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C51" t="n">
         <v>259</v>
       </c>
       <c r="D51" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E51" t="n">
         <v>259</v>
       </c>
       <c r="F51" t="n">
-        <v>25.8283</v>
+        <v>5502.1612</v>
       </c>
       <c r="G51" t="n">
-        <v>257.2333333333333</v>
+        <v>257.15</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E52" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" t="n">
-        <v>3781.5499</v>
+        <v>25.8283</v>
       </c>
       <c r="G52" t="n">
-        <v>257.3833333333333</v>
+        <v>257.2333333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E53" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F53" t="n">
-        <v>1250.1407</v>
+        <v>3781.5499</v>
       </c>
       <c r="G53" t="n">
-        <v>257.5</v>
+        <v>257.3833333333333</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>258</v>
       </c>
       <c r="F54" t="n">
-        <v>1364.8931</v>
+        <v>1250.1407</v>
       </c>
       <c r="G54" t="n">
-        <v>257.5833333333333</v>
+        <v>257.5</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
         <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>732.341</v>
+        <v>1364.8931</v>
       </c>
       <c r="G55" t="n">
-        <v>257.6666666666667</v>
+        <v>257.5833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>258</v>
       </c>
       <c r="C56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
         <v>258</v>
       </c>
       <c r="F56" t="n">
-        <v>395.5523</v>
+        <v>732.341</v>
       </c>
       <c r="G56" t="n">
-        <v>257.7666666666667</v>
+        <v>257.6666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D57" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>4875.972</v>
+        <v>395.5523</v>
       </c>
       <c r="G57" t="n">
-        <v>257.8833333333333</v>
+        <v>257.7666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C58" t="n">
         <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
         <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>3908.1518</v>
+        <v>4875.972</v>
       </c>
       <c r="G58" t="n">
-        <v>257.9666666666666</v>
+        <v>257.8833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>257</v>
       </c>
       <c r="C59" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D59" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E59" t="n">
         <v>257</v>
       </c>
       <c r="F59" t="n">
-        <v>21334.3824</v>
+        <v>3908.1518</v>
       </c>
       <c r="G59" t="n">
-        <v>258.05</v>
+        <v>257.9666666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D60" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E60" t="n">
         <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>777.0300999999999</v>
+        <v>21334.3824</v>
       </c>
       <c r="G60" t="n">
-        <v>258.1166666666667</v>
+        <v>258.05</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F61" t="n">
-        <v>96.92319999999999</v>
+        <v>777.0300999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>258.15</v>
+        <v>258.1166666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C62" t="n">
         <v>256</v>
       </c>
       <c r="D62" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E62" t="n">
         <v>256</v>
       </c>
       <c r="F62" t="n">
-        <v>48915.7548</v>
+        <v>96.92319999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>258.1833333333333</v>
+        <v>258.15</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C63" t="n">
         <v>256</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E63" t="n">
         <v>256</v>
       </c>
       <c r="F63" t="n">
-        <v>3600.3285</v>
+        <v>48915.7548</v>
       </c>
       <c r="G63" t="n">
-        <v>258.2166666666666</v>
+        <v>258.1833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2023,21 +2214,24 @@
         <v>257</v>
       </c>
       <c r="C64" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" t="n">
         <v>257</v>
       </c>
       <c r="E64" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" t="n">
-        <v>175.7363</v>
+        <v>3600.3285</v>
       </c>
       <c r="G64" t="n">
-        <v>258.2666666666667</v>
+        <v>258.2166666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C65" t="n">
         <v>257</v>
       </c>
       <c r="D65" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E65" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="n">
-        <v>3782.7989</v>
+        <v>175.7363</v>
       </c>
       <c r="G65" t="n">
-        <v>258.3</v>
+        <v>258.2666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C66" t="n">
         <v>257</v>
       </c>
       <c r="D66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E66" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" t="n">
-        <v>1082.9532</v>
+        <v>3782.7989</v>
       </c>
       <c r="G66" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>1082.9532</v>
       </c>
       <c r="G67" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E68" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F68" t="n">
-        <v>655.8649</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>258.3833333333333</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E69" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F69" t="n">
-        <v>323.7221</v>
+        <v>655.8649</v>
       </c>
       <c r="G69" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>255</v>
       </c>
       <c r="F70" t="n">
-        <v>2403.0389</v>
+        <v>323.7221</v>
       </c>
       <c r="G70" t="n">
-        <v>258.35</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>255</v>
       </c>
       <c r="F71" t="n">
-        <v>228.3741</v>
+        <v>2403.0389</v>
       </c>
       <c r="G71" t="n">
-        <v>258.3333333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F72" t="n">
-        <v>88.3496</v>
+        <v>228.3741</v>
       </c>
       <c r="G72" t="n">
         <v>258.3333333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E73" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" t="n">
-        <v>3.1976</v>
+        <v>88.3496</v>
       </c>
       <c r="G73" t="n">
-        <v>258.3666666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E74" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F74" t="n">
-        <v>4175.5968</v>
+        <v>3.1976</v>
       </c>
       <c r="G74" t="n">
-        <v>258.3833333333333</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F75" t="n">
-        <v>1267.4629</v>
+        <v>4175.5968</v>
       </c>
       <c r="G75" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E76" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F76" t="n">
-        <v>2419.448</v>
+        <v>1267.4629</v>
       </c>
       <c r="G76" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E77" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F77" t="n">
-        <v>619.8539</v>
+        <v>2419.448</v>
       </c>
       <c r="G77" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>258</v>
       </c>
       <c r="F78" t="n">
-        <v>606</v>
+        <v>619.8539</v>
       </c>
       <c r="G78" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>2126.1561</v>
+        <v>606</v>
       </c>
       <c r="G79" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>258</v>
       </c>
       <c r="F80" t="n">
-        <v>2829.7438</v>
+        <v>2126.1561</v>
       </c>
       <c r="G80" t="n">
         <v>258.3833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>258</v>
       </c>
       <c r="C81" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D81" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E81" t="n">
         <v>258</v>
       </c>
       <c r="F81" t="n">
-        <v>2900</v>
+        <v>2829.7438</v>
       </c>
       <c r="G81" t="n">
-        <v>258.35</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" t="n">
         <v>259</v>
@@ -2497,15 +2742,18 @@
         <v>259</v>
       </c>
       <c r="E82" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F82" t="n">
-        <v>2798.6093</v>
+        <v>2900</v>
       </c>
       <c r="G82" t="n">
-        <v>258.3333333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E83" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F83" t="n">
-        <v>53.0576</v>
+        <v>2798.6093</v>
       </c>
       <c r="G83" t="n">
         <v>258.3333333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>260</v>
       </c>
       <c r="F84" t="n">
-        <v>2034.7096</v>
+        <v>53.0576</v>
       </c>
       <c r="G84" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>260</v>
       </c>
       <c r="F85" t="n">
-        <v>478.6384</v>
+        <v>2034.7096</v>
       </c>
       <c r="G85" t="n">
-        <v>258.3333333333333</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E86" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F86" t="n">
-        <v>3076.9593</v>
+        <v>478.6384</v>
       </c>
       <c r="G86" t="n">
-        <v>258.2833333333334</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>258</v>
       </c>
       <c r="C87" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D87" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E87" t="n">
         <v>258</v>
       </c>
       <c r="F87" t="n">
-        <v>3476.9593</v>
+        <v>3076.9593</v>
       </c>
       <c r="G87" t="n">
-        <v>258.3</v>
+        <v>258.2833333333334</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" t="n">
         <v>260</v>
@@ -2653,15 +2916,18 @@
         <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F88" t="n">
-        <v>5038.2461</v>
+        <v>3476.9593</v>
       </c>
       <c r="G88" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>3398.3882</v>
+        <v>5038.2461</v>
       </c>
       <c r="G89" t="n">
-        <v>258.3333333333333</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E90" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F90" t="n">
-        <v>10000</v>
+        <v>3398.3882</v>
       </c>
       <c r="G90" t="n">
         <v>258.3333333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E91" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F91" t="n">
-        <v>9990.861538461539</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
         <v>258.3333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>260</v>
       </c>
       <c r="F92" t="n">
-        <v>9.138461538461538</v>
+        <v>9990.861538461539</v>
       </c>
       <c r="G92" t="n">
-        <v>258.3166666666667</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E93" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F93" t="n">
-        <v>5900</v>
+        <v>9.138461538461538</v>
       </c>
       <c r="G93" t="n">
-        <v>258.35</v>
+        <v>258.3166666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>262</v>
       </c>
       <c r="F94" t="n">
-        <v>436.2099</v>
+        <v>5900</v>
       </c>
       <c r="G94" t="n">
-        <v>258.3833333333333</v>
+        <v>258.35</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>262</v>
       </c>
       <c r="F95" t="n">
-        <v>2509.8546</v>
+        <v>436.2099</v>
       </c>
       <c r="G95" t="n">
-        <v>258.4166666666667</v>
+        <v>258.3833333333333</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>262</v>
       </c>
       <c r="F96" t="n">
-        <v>12280</v>
+        <v>2509.8546</v>
       </c>
       <c r="G96" t="n">
-        <v>258.45</v>
+        <v>258.4166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>262</v>
       </c>
       <c r="F97" t="n">
-        <v>299.019</v>
+        <v>12280</v>
       </c>
       <c r="G97" t="n">
-        <v>258.4833333333333</v>
+        <v>258.45</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>262</v>
       </c>
       <c r="C98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D98" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E98" t="n">
         <v>262</v>
       </c>
       <c r="F98" t="n">
-        <v>45402.06703954373</v>
+        <v>299.019</v>
       </c>
       <c r="G98" t="n">
-        <v>258.5333333333334</v>
+        <v>258.4833333333333</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>262</v>
+      </c>
+      <c r="C99" t="n">
         <v>264</v>
       </c>
-      <c r="C99" t="n">
-        <v>265</v>
-      </c>
       <c r="D99" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E99" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F99" t="n">
-        <v>30791.825</v>
+        <v>45402.06703954373</v>
       </c>
       <c r="G99" t="n">
-        <v>258.6166666666667</v>
+        <v>258.5333333333334</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2965,15 +3264,18 @@
         <v>265</v>
       </c>
       <c r="E100" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100" t="n">
-        <v>2760.7316</v>
+        <v>30791.825</v>
       </c>
       <c r="G100" t="n">
-        <v>258.7</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" t="n">
         <v>265</v>
@@ -2991,15 +3293,18 @@
         <v>265</v>
       </c>
       <c r="E101" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F101" t="n">
-        <v>1115.322</v>
+        <v>2760.7316</v>
       </c>
       <c r="G101" t="n">
-        <v>258.8</v>
+        <v>258.7</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C102" t="n">
         <v>265</v>
       </c>
       <c r="D102" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E102" t="n">
         <v>265</v>
       </c>
       <c r="F102" t="n">
-        <v>8188.4157</v>
+        <v>1115.322</v>
       </c>
       <c r="G102" t="n">
-        <v>258.8833333333333</v>
+        <v>258.8</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C103" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D103" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E103" t="n">
         <v>265</v>
       </c>
       <c r="F103" t="n">
-        <v>757.8982</v>
+        <v>8188.4157</v>
       </c>
       <c r="G103" t="n">
-        <v>258.9666666666666</v>
+        <v>258.8833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D104" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E104" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F104" t="n">
-        <v>3677.097346441948</v>
+        <v>757.8982</v>
       </c>
       <c r="G104" t="n">
-        <v>259.1166666666667</v>
+        <v>258.9666666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>267</v>
       </c>
       <c r="F105" t="n">
-        <v>32318.91105355805</v>
+        <v>3677.097346441948</v>
       </c>
       <c r="G105" t="n">
-        <v>259.25</v>
+        <v>259.1166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>267</v>
       </c>
       <c r="C106" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D106" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E106" t="n">
         <v>267</v>
       </c>
       <c r="F106" t="n">
-        <v>22234.25523283582</v>
+        <v>32318.91105355805</v>
       </c>
       <c r="G106" t="n">
-        <v>259.4166666666667</v>
+        <v>259.25</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,10 +3458,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>267</v>
+      </c>
+      <c r="C107" t="n">
         <v>268</v>
-      </c>
-      <c r="C107" t="n">
-        <v>267</v>
       </c>
       <c r="D107" t="n">
         <v>268</v>
@@ -3150,13 +3470,16 @@
         <v>267</v>
       </c>
       <c r="F107" t="n">
-        <v>10221.0698</v>
+        <v>22234.25523283582</v>
       </c>
       <c r="G107" t="n">
-        <v>259.5666666666667</v>
+        <v>259.4166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -3167,22 +3490,25 @@
         <v>268</v>
       </c>
       <c r="C108" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D108" t="n">
         <v>268</v>
       </c>
       <c r="E108" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F108" t="n">
-        <v>9.300000000000001</v>
+        <v>10221.0698</v>
       </c>
       <c r="G108" t="n">
-        <v>259.7333333333333</v>
+        <v>259.5666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E109" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F109" t="n">
-        <v>4.6441947565543e-05</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>259.8833333333333</v>
+        <v>259.7333333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D110" t="n">
         <v>267</v>
       </c>
       <c r="E110" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F110" t="n">
-        <v>4279.1696</v>
+        <v>4.6441947565543e-05</v>
       </c>
       <c r="G110" t="n">
-        <v>260</v>
+        <v>259.8833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>266</v>
       </c>
       <c r="C111" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D111" t="n">
+        <v>267</v>
+      </c>
+      <c r="E111" t="n">
         <v>266</v>
       </c>
-      <c r="E111" t="n">
-        <v>265</v>
-      </c>
       <c r="F111" t="n">
-        <v>929.8244</v>
+        <v>4279.1696</v>
       </c>
       <c r="G111" t="n">
-        <v>260.1</v>
+        <v>260</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>266</v>
       </c>
       <c r="C112" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D112" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E112" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F112" t="n">
-        <v>30227.00615355805</v>
+        <v>929.8244</v>
       </c>
       <c r="G112" t="n">
-        <v>260.2166666666666</v>
+        <v>260.1</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C113" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D113" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E113" t="n">
         <v>266</v>
       </c>
       <c r="F113" t="n">
-        <v>2895.1156</v>
+        <v>30227.00615355805</v>
       </c>
       <c r="G113" t="n">
-        <v>260.35</v>
+        <v>260.2166666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C114" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D114" t="n">
         <v>268</v>
       </c>
       <c r="E114" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F114" t="n">
-        <v>14818.669</v>
+        <v>2895.1156</v>
       </c>
       <c r="G114" t="n">
-        <v>260.5166666666667</v>
+        <v>260.35</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>267</v>
+      </c>
+      <c r="C115" t="n">
         <v>268</v>
-      </c>
-      <c r="C115" t="n">
-        <v>266</v>
       </c>
       <c r="D115" t="n">
         <v>268</v>
       </c>
       <c r="E115" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F115" t="n">
-        <v>9148.821</v>
+        <v>14818.669</v>
       </c>
       <c r="G115" t="n">
-        <v>260.6333333333333</v>
+        <v>260.5166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>268</v>
+      </c>
+      <c r="C116" t="n">
         <v>266</v>
       </c>
-      <c r="C116" t="n">
-        <v>265</v>
-      </c>
       <c r="D116" t="n">
+        <v>268</v>
+      </c>
+      <c r="E116" t="n">
         <v>266</v>
       </c>
-      <c r="E116" t="n">
-        <v>265</v>
-      </c>
       <c r="F116" t="n">
-        <v>7500.0639</v>
+        <v>9148.821</v>
       </c>
       <c r="G116" t="n">
-        <v>260.75</v>
+        <v>260.6333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117" t="n">
         <v>265</v>
       </c>
       <c r="D117" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E117" t="n">
         <v>265</v>
       </c>
       <c r="F117" t="n">
-        <v>8004.9116</v>
+        <v>7500.0639</v>
       </c>
       <c r="G117" t="n">
-        <v>260.8833333333333</v>
+        <v>260.75</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>265</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>8004.9116</v>
       </c>
       <c r="G118" t="n">
-        <v>261.0166666666667</v>
+        <v>260.8833333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E119" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>261.1666666666667</v>
+        <v>261.0166666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>267</v>
       </c>
       <c r="F120" t="n">
-        <v>2563.7191</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>261.3333333333333</v>
+        <v>261.1666666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C121" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D121" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E121" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F121" t="n">
-        <v>717.2761</v>
+        <v>2563.7191</v>
       </c>
       <c r="G121" t="n">
-        <v>261.5</v>
+        <v>261.3333333333333</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C122" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D122" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E122" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F122" t="n">
-        <v>943.6328999999999</v>
+        <v>717.2761</v>
       </c>
       <c r="G122" t="n">
-        <v>261.6833333333333</v>
+        <v>261.5</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>267</v>
       </c>
       <c r="F123" t="n">
-        <v>374.5318</v>
+        <v>943.6328999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>261.8666666666667</v>
+        <v>261.6833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,7 +3951,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C124" t="n">
         <v>267</v>
@@ -3589,15 +3960,18 @@
         <v>267</v>
       </c>
       <c r="E124" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F124" t="n">
-        <v>112.6629</v>
+        <v>374.5318</v>
       </c>
       <c r="G124" t="n">
-        <v>262.0333333333334</v>
+        <v>261.8666666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>266</v>
       </c>
       <c r="F125" t="n">
-        <v>3078.4441</v>
+        <v>112.6629</v>
       </c>
       <c r="G125" t="n">
-        <v>262.2</v>
+        <v>262.0333333333334</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,7 +4012,7 @@
         <v>266</v>
       </c>
       <c r="C126" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D126" t="n">
         <v>267</v>
@@ -3644,12 +4021,15 @@
         <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>14875.4543</v>
+        <v>3078.4441</v>
       </c>
       <c r="G126" t="n">
-        <v>262.35</v>
+        <v>262.2</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3664,18 +4044,21 @@
         <v>266</v>
       </c>
       <c r="D127" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E127" t="n">
         <v>266</v>
       </c>
       <c r="F127" t="n">
-        <v>4986.0119</v>
+        <v>14875.4543</v>
       </c>
       <c r="G127" t="n">
-        <v>262.4833333333333</v>
+        <v>262.35</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>266</v>
       </c>
       <c r="C128" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D128" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E128" t="n">
         <v>266</v>
       </c>
       <c r="F128" t="n">
-        <v>1018.6659</v>
+        <v>4986.0119</v>
       </c>
       <c r="G128" t="n">
-        <v>262.6833333333333</v>
+        <v>262.4833333333333</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C129" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D129" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E129" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F129" t="n">
-        <v>7391.9153</v>
+        <v>1018.6659</v>
       </c>
       <c r="G129" t="n">
-        <v>262.8833333333333</v>
+        <v>262.6833333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E130" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F130" t="n">
-        <v>40</v>
+        <v>7391.9153</v>
       </c>
       <c r="G130" t="n">
-        <v>263.0666666666667</v>
+        <v>262.8833333333333</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E131" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G131" t="n">
-        <v>263.2166666666666</v>
+        <v>263.0666666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D132" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E132" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F132" t="n">
-        <v>1724.1163</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>263.3666666666667</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C133" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D133" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E133" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>1724.1163</v>
       </c>
       <c r="G133" t="n">
-        <v>263.45</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E134" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>263.5666666666667</v>
+        <v>263.45</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>264</v>
       </c>
       <c r="F135" t="n">
-        <v>2303.5483</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>263.7</v>
+        <v>263.5666666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E136" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F136" t="n">
-        <v>298.2714</v>
+        <v>2303.5483</v>
       </c>
       <c r="G136" t="n">
-        <v>263.8</v>
+        <v>263.7</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>298.2714</v>
       </c>
       <c r="G137" t="n">
-        <v>263.8833333333333</v>
+        <v>263.8</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E138" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" t="n">
-        <v>15723.7618</v>
+        <v>80</v>
       </c>
       <c r="G138" t="n">
-        <v>263.9833333333333</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3976,18 +4392,21 @@
         <v>264</v>
       </c>
       <c r="D139" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E139" t="n">
         <v>264</v>
       </c>
       <c r="F139" t="n">
-        <v>8330.2179</v>
+        <v>15723.7618</v>
       </c>
       <c r="G139" t="n">
-        <v>264.0833333333333</v>
+        <v>263.9833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4002,18 +4421,21 @@
         <v>264</v>
       </c>
       <c r="D140" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E140" t="n">
         <v>264</v>
       </c>
       <c r="F140" t="n">
-        <v>818.3134</v>
+        <v>8330.2179</v>
       </c>
       <c r="G140" t="n">
-        <v>264.1833333333333</v>
+        <v>264.0833333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>264</v>
       </c>
       <c r="F141" t="n">
-        <v>1793.6774</v>
+        <v>818.3134</v>
       </c>
       <c r="G141" t="n">
-        <v>264.2666666666667</v>
+        <v>264.1833333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>264</v>
       </c>
       <c r="C142" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D142" t="n">
         <v>264</v>
       </c>
       <c r="E142" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F142" t="n">
-        <v>13870.0001</v>
+        <v>1793.6774</v>
       </c>
       <c r="G142" t="n">
-        <v>264.3333333333333</v>
+        <v>264.2666666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>264</v>
+      </c>
+      <c r="C143" t="n">
         <v>263</v>
       </c>
-      <c r="C143" t="n">
-        <v>261</v>
-      </c>
       <c r="D143" t="n">
+        <v>264</v>
+      </c>
+      <c r="E143" t="n">
         <v>263</v>
       </c>
-      <c r="E143" t="n">
-        <v>261</v>
-      </c>
       <c r="F143" t="n">
-        <v>31715.6904</v>
+        <v>13870.0001</v>
       </c>
       <c r="G143" t="n">
-        <v>264.35</v>
+        <v>264.3333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C144" t="n">
         <v>261</v>
       </c>
       <c r="D144" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E144" t="n">
         <v>261</v>
       </c>
       <c r="F144" t="n">
-        <v>3815.6892</v>
+        <v>31715.6904</v>
       </c>
       <c r="G144" t="n">
-        <v>264.3666666666667</v>
+        <v>264.35</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>262</v>
+      </c>
+      <c r="C145" t="n">
         <v>261</v>
       </c>
-      <c r="C145" t="n">
-        <v>263</v>
-      </c>
       <c r="D145" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E145" t="n">
         <v>261</v>
       </c>
       <c r="F145" t="n">
-        <v>37096.5359</v>
+        <v>3815.6892</v>
       </c>
       <c r="G145" t="n">
-        <v>264.4166666666667</v>
+        <v>264.3666666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>261</v>
       </c>
       <c r="F146" t="n">
-        <v>4502.6712</v>
+        <v>37096.5359</v>
       </c>
       <c r="G146" t="n">
-        <v>264.5</v>
+        <v>264.4166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4181,21 +4621,24 @@
         <v>261</v>
       </c>
       <c r="C147" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D147" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E147" t="n">
         <v>261</v>
       </c>
       <c r="F147" t="n">
-        <v>2270.3935</v>
+        <v>4502.6712</v>
       </c>
       <c r="G147" t="n">
-        <v>264.5166666666667</v>
+        <v>264.5</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>261</v>
       </c>
       <c r="C148" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D148" t="n">
         <v>261</v>
       </c>
       <c r="E148" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F148" t="n">
-        <v>6863.0217</v>
+        <v>2270.3935</v>
       </c>
       <c r="G148" t="n">
-        <v>264.4833333333333</v>
+        <v>264.5166666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C149" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D149" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E149" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F149" t="n">
-        <v>6613.7929</v>
+        <v>6863.0217</v>
       </c>
       <c r="G149" t="n">
-        <v>264.5166666666667</v>
+        <v>264.4833333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C150" t="n">
         <v>262</v>
@@ -4265,15 +4714,18 @@
         <v>262</v>
       </c>
       <c r="E150" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>6613.7929</v>
       </c>
       <c r="G150" t="n">
-        <v>264.5666666666667</v>
+        <v>264.5166666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E151" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F151" t="n">
-        <v>60.9639</v>
+        <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>264.5833333333333</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>261</v>
       </c>
       <c r="F152" t="n">
-        <v>7507.4288</v>
+        <v>60.9639</v>
       </c>
       <c r="G152" t="n">
-        <v>264.6</v>
+        <v>264.5833333333333</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C153" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D153" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E153" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F153" t="n">
-        <v>1410.1711</v>
+        <v>7507.4288</v>
       </c>
       <c r="G153" t="n">
-        <v>264.5666666666667</v>
+        <v>264.6</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C154" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D154" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E154" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F154" t="n">
-        <v>1958.4687</v>
+        <v>1410.1711</v>
       </c>
       <c r="G154" t="n">
-        <v>264.4666666666666</v>
+        <v>264.5666666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C155" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D155" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E155" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F155" t="n">
-        <v>1896.6808</v>
+        <v>1958.4687</v>
       </c>
       <c r="G155" t="n">
-        <v>264.3833333333333</v>
+        <v>264.4666666666666</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>257</v>
       </c>
       <c r="F156" t="n">
-        <v>4539.464</v>
+        <v>1896.6808</v>
       </c>
       <c r="G156" t="n">
-        <v>264.3</v>
+        <v>264.3833333333333</v>
       </c>
       <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>257</v>
       </c>
       <c r="F157" t="n">
-        <v>843.47</v>
+        <v>4539.464</v>
       </c>
       <c r="G157" t="n">
-        <v>264.2166666666666</v>
+        <v>264.3</v>
       </c>
       <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>257</v>
       </c>
       <c r="F158" t="n">
-        <v>1102</v>
+        <v>843.47</v>
       </c>
       <c r="G158" t="n">
-        <v>264.1</v>
+        <v>264.2166666666666</v>
       </c>
       <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>257</v>
       </c>
       <c r="C159" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D159" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E159" t="n">
         <v>257</v>
       </c>
       <c r="F159" t="n">
-        <v>7598.8867</v>
+        <v>1102</v>
       </c>
       <c r="G159" t="n">
-        <v>263.9833333333333</v>
+        <v>264.1</v>
       </c>
       <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C160" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D160" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E160" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F160" t="n">
-        <v>945.3054</v>
+        <v>7598.8867</v>
       </c>
       <c r="G160" t="n">
-        <v>263.9166666666667</v>
+        <v>263.9833333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E161" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F161" t="n">
-        <v>2570.5719</v>
+        <v>945.3054</v>
       </c>
       <c r="G161" t="n">
-        <v>263.8833333333333</v>
+        <v>263.9166666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>263</v>
       </c>
       <c r="C162" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D162" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E162" t="n">
         <v>263</v>
       </c>
       <c r="F162" t="n">
-        <v>6119.7375</v>
+        <v>2570.5719</v>
       </c>
       <c r="G162" t="n">
         <v>263.8833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D163" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E163" t="n">
         <v>263</v>
       </c>
       <c r="F163" t="n">
-        <v>2926.8803</v>
+        <v>6119.7375</v>
       </c>
       <c r="G163" t="n">
-        <v>263.8333333333333</v>
+        <v>263.8833333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,21 +5114,24 @@
         <v>264</v>
       </c>
       <c r="C164" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D164" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E164" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F164" t="n">
-        <v>4237.6032</v>
+        <v>2926.8803</v>
       </c>
       <c r="G164" t="n">
-        <v>263.8</v>
+        <v>263.8333333333333</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +5140,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C165" t="n">
         <v>265</v>
@@ -4655,15 +5149,18 @@
         <v>265</v>
       </c>
       <c r="E165" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F165" t="n">
-        <v>10735.9371</v>
+        <v>4237.6032</v>
       </c>
       <c r="G165" t="n">
-        <v>263.7666666666667</v>
+        <v>263.8</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4675,21 +5172,24 @@
         <v>265</v>
       </c>
       <c r="C166" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D166" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E166" t="n">
         <v>265</v>
       </c>
       <c r="F166" t="n">
-        <v>694.3161</v>
+        <v>10735.9371</v>
       </c>
       <c r="G166" t="n">
-        <v>263.7333333333333</v>
+        <v>263.7666666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4701,21 +5201,24 @@
         <v>265</v>
       </c>
       <c r="C167" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D167" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E167" t="n">
         <v>265</v>
       </c>
       <c r="F167" t="n">
-        <v>1534.2075</v>
+        <v>694.3161</v>
       </c>
       <c r="G167" t="n">
-        <v>263.7</v>
+        <v>263.7333333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E168" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F168" t="n">
-        <v>3576.4285</v>
+        <v>1534.2075</v>
       </c>
       <c r="G168" t="n">
-        <v>263.6666666666667</v>
+        <v>263.7</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>266</v>
       </c>
       <c r="F169" t="n">
-        <v>4172.0112</v>
+        <v>3576.4285</v>
       </c>
       <c r="G169" t="n">
-        <v>263.65</v>
+        <v>263.6666666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C170" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D170" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E170" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F170" t="n">
-        <v>5809.1191</v>
+        <v>4172.0112</v>
       </c>
       <c r="G170" t="n">
-        <v>263.6166666666667</v>
+        <v>263.65</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C171" t="n">
         <v>264</v>
       </c>
       <c r="D171" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E171" t="n">
         <v>264</v>
       </c>
       <c r="F171" t="n">
-        <v>75.1189</v>
+        <v>5809.1191</v>
       </c>
       <c r="G171" t="n">
-        <v>263.6</v>
+        <v>263.6166666666667</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E172" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F172" t="n">
-        <v>588.8986</v>
+        <v>75.1189</v>
       </c>
       <c r="G172" t="n">
-        <v>263.5666666666667</v>
+        <v>263.6</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E173" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F173" t="n">
-        <v>15.0996</v>
+        <v>588.8986</v>
       </c>
       <c r="G173" t="n">
         <v>263.5666666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4892,12 +5413,15 @@
         <v>266</v>
       </c>
       <c r="F174" t="n">
-        <v>379.6015</v>
+        <v>15.0996</v>
       </c>
       <c r="G174" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F175" t="n">
-        <v>4100</v>
+        <v>379.6015</v>
       </c>
       <c r="G175" t="n">
-        <v>263.5166666666667</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>265</v>
       </c>
       <c r="F176" t="n">
-        <v>2273.0964</v>
+        <v>4100</v>
       </c>
       <c r="G176" t="n">
         <v>263.5166666666667</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>265</v>
       </c>
       <c r="F177" t="n">
-        <v>341.928</v>
+        <v>2273.0964</v>
       </c>
       <c r="G177" t="n">
         <v>263.5166666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4987,21 +5520,24 @@
         <v>265</v>
       </c>
       <c r="C178" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D178" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E178" t="n">
         <v>265</v>
       </c>
       <c r="F178" t="n">
-        <v>16024.0533</v>
+        <v>341.928</v>
       </c>
       <c r="G178" t="n">
-        <v>263.5333333333334</v>
+        <v>263.5166666666667</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>265</v>
+      </c>
+      <c r="C179" t="n">
         <v>266</v>
       </c>
-      <c r="C179" t="n">
-        <v>267</v>
-      </c>
       <c r="D179" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E179" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F179" t="n">
-        <v>3355.291756554307</v>
+        <v>16024.0533</v>
       </c>
       <c r="G179" t="n">
         <v>263.5333333333334</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>266</v>
       </c>
       <c r="F180" t="n">
-        <v>2620.368946816479</v>
+        <v>3355.291756554307</v>
       </c>
       <c r="G180" t="n">
         <v>263.5333333333334</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5065,21 +5607,24 @@
         <v>266</v>
       </c>
       <c r="C181" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D181" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E181" t="n">
         <v>266</v>
       </c>
       <c r="F181" t="n">
-        <v>2979.4098</v>
+        <v>2620.368946816479</v>
       </c>
       <c r="G181" t="n">
         <v>263.5333333333334</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E182" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F182" t="n">
-        <v>1.8539</v>
+        <v>2979.4098</v>
       </c>
       <c r="G182" t="n">
         <v>263.5333333333334</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E183" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F183" t="n">
-        <v>2006.7245</v>
+        <v>1.8539</v>
       </c>
       <c r="G183" t="n">
-        <v>263.5</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>265</v>
       </c>
       <c r="F184" t="n">
-        <v>2608.4252</v>
+        <v>2006.7245</v>
       </c>
       <c r="G184" t="n">
-        <v>263.4666666666666</v>
+        <v>263.5</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5178,12 +5732,15 @@
         <v>265</v>
       </c>
       <c r="F185" t="n">
-        <v>1605.766</v>
+        <v>2608.4252</v>
       </c>
       <c r="G185" t="n">
-        <v>263.4333333333333</v>
+        <v>263.4666666666666</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,12 +5761,15 @@
         <v>265</v>
       </c>
       <c r="F186" t="n">
-        <v>100</v>
+        <v>1605.766</v>
       </c>
       <c r="G186" t="n">
-        <v>263.4166666666667</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>265</v>
       </c>
       <c r="F187" t="n">
-        <v>42.1473</v>
+        <v>100</v>
       </c>
       <c r="G187" t="n">
-        <v>263.4</v>
+        <v>263.4166666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>265</v>
       </c>
       <c r="F188" t="n">
-        <v>270.294</v>
+        <v>42.1473</v>
       </c>
       <c r="G188" t="n">
-        <v>263.35</v>
+        <v>263.4</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E189" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F189" t="n">
-        <v>8434.446400000001</v>
+        <v>270.294</v>
       </c>
       <c r="G189" t="n">
-        <v>263.3</v>
+        <v>263.35</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>264</v>
       </c>
       <c r="F190" t="n">
-        <v>5451.7542</v>
+        <v>8434.446400000001</v>
       </c>
       <c r="G190" t="n">
-        <v>263.2666666666667</v>
+        <v>263.3</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E191" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F191" t="n">
-        <v>12.295</v>
+        <v>5451.7542</v>
       </c>
       <c r="G191" t="n">
-        <v>263.2833333333334</v>
+        <v>263.2666666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5351,21 +5926,24 @@
         <v>265</v>
       </c>
       <c r="C192" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D192" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E192" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F192" t="n">
-        <v>7607.9456</v>
+        <v>12.295</v>
       </c>
       <c r="G192" t="n">
-        <v>263.3</v>
+        <v>263.2833333333334</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5377,21 +5955,24 @@
         <v>265</v>
       </c>
       <c r="C193" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D193" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E193" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F193" t="n">
-        <v>3753.8608</v>
+        <v>7607.9456</v>
       </c>
       <c r="G193" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>265</v>
       </c>
       <c r="F194" t="n">
-        <v>42138.058</v>
+        <v>3753.8608</v>
       </c>
       <c r="G194" t="n">
-        <v>263.35</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +6010,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C195" t="n">
         <v>265</v>
@@ -5435,15 +6019,18 @@
         <v>265</v>
       </c>
       <c r="E195" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F195" t="n">
-        <v>10527.7377</v>
+        <v>42138.058</v>
       </c>
       <c r="G195" t="n">
-        <v>263.3666666666667</v>
+        <v>263.35</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5455,21 +6042,24 @@
         <v>264</v>
       </c>
       <c r="C196" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D196" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E196" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F196" t="n">
-        <v>406.8402</v>
+        <v>10527.7377</v>
       </c>
       <c r="G196" t="n">
-        <v>263.3833333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E197" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F197" t="n">
-        <v>1670</v>
+        <v>406.8402</v>
       </c>
       <c r="G197" t="n">
-        <v>263.3666666666667</v>
+        <v>263.3833333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>262</v>
       </c>
       <c r="F198" t="n">
-        <v>3007.9908</v>
+        <v>1670</v>
       </c>
       <c r="G198" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>262</v>
       </c>
       <c r="F199" t="n">
-        <v>13303.8209</v>
+        <v>3007.9908</v>
       </c>
       <c r="G199" t="n">
-        <v>263.3</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E200" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F200" t="n">
-        <v>1900</v>
+        <v>13303.8209</v>
       </c>
       <c r="G200" t="n">
-        <v>263.25</v>
+        <v>263.3</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E201" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F201" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="G201" t="n">
-        <v>263.2166666666666</v>
+        <v>263.25</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>262</v>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G202" t="n">
-        <v>263.2</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>262</v>
       </c>
       <c r="F203" t="n">
-        <v>3410</v>
+        <v>200</v>
       </c>
       <c r="G203" t="n">
-        <v>263.2166666666666</v>
+        <v>263.2</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>262</v>
       </c>
       <c r="F204" t="n">
-        <v>13510</v>
+        <v>3410</v>
       </c>
       <c r="G204" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>262</v>
       </c>
       <c r="F205" t="n">
-        <v>160.3726</v>
+        <v>13510</v>
       </c>
       <c r="G205" t="n">
-        <v>263.2166666666666</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>262</v>
       </c>
       <c r="F206" t="n">
-        <v>1149.0562</v>
+        <v>160.3726</v>
       </c>
       <c r="G206" t="n">
-        <v>263.2</v>
+        <v>263.2166666666666</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E207" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F207" t="n">
-        <v>10</v>
+        <v>1149.0562</v>
       </c>
       <c r="G207" t="n">
-        <v>263.2333333333333</v>
+        <v>263.2</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E208" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F208" t="n">
-        <v>530.3330999999999</v>
+        <v>10</v>
       </c>
       <c r="G208" t="n">
-        <v>263.3</v>
+        <v>263.2333333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>262</v>
       </c>
       <c r="F209" t="n">
-        <v>500</v>
+        <v>530.3330999999999</v>
       </c>
       <c r="G209" t="n">
         <v>263.3</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>262</v>
       </c>
       <c r="F210" t="n">
-        <v>2000.8729</v>
+        <v>500</v>
       </c>
       <c r="G210" t="n">
         <v>263.3</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5842,24 +6474,27 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E211" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F211" t="n">
-        <v>5062.3069</v>
+        <v>2000.8729</v>
       </c>
       <c r="G211" t="n">
-        <v>263.3333333333333</v>
+        <v>263.3</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>263</v>
       </c>
       <c r="F212" t="n">
-        <v>2144.6626</v>
+        <v>5062.3069</v>
       </c>
       <c r="G212" t="n">
-        <v>263.3666666666667</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5894,24 +6532,27 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C213" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D213" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E213" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F213" t="n">
-        <v>97593.02439999999</v>
+        <v>2144.6626</v>
       </c>
       <c r="G213" t="n">
-        <v>263.4333333333333</v>
+        <v>263.3666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,21 +6564,24 @@
         <v>262</v>
       </c>
       <c r="C214" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D214" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E214" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F214" t="n">
-        <v>7633.5876</v>
+        <v>97593.02439999999</v>
       </c>
       <c r="G214" t="n">
-        <v>263.5333333333334</v>
+        <v>263.4333333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E215" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F215" t="n">
-        <v>6030</v>
+        <v>7633.5876</v>
       </c>
       <c r="G215" t="n">
-        <v>263.6333333333333</v>
+        <v>263.5333333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C216" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D216" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E216" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F216" t="n">
-        <v>21731.751</v>
+        <v>6030</v>
       </c>
       <c r="G216" t="n">
-        <v>263.8</v>
+        <v>263.6333333333333</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C217" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D217" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E217" t="n">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F217" t="n">
-        <v>1016.6225</v>
+        <v>21731.751</v>
       </c>
       <c r="G217" t="n">
-        <v>264</v>
+        <v>263.8</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C218" t="n">
         <v>269</v>
       </c>
       <c r="D218" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E218" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F218" t="n">
-        <v>9550.7515</v>
+        <v>1016.6225</v>
       </c>
       <c r="G218" t="n">
-        <v>264.2</v>
+        <v>264</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C219" t="n">
         <v>269</v>
       </c>
       <c r="D219" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E219" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F219" t="n">
-        <v>1445.8813</v>
+        <v>9550.7515</v>
       </c>
       <c r="G219" t="n">
-        <v>264.3833333333333</v>
+        <v>264.2</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C220" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D220" t="n">
         <v>270</v>
       </c>
       <c r="E220" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F220" t="n">
-        <v>518.8074</v>
+        <v>1445.8813</v>
       </c>
       <c r="G220" t="n">
-        <v>264.5333333333334</v>
+        <v>264.3833333333333</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E221" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F221" t="n">
-        <v>26978.5241</v>
+        <v>518.8074</v>
       </c>
       <c r="G221" t="n">
-        <v>264.6333333333333</v>
+        <v>264.5333333333334</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E222" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>26978.5241</v>
       </c>
       <c r="G222" t="n">
-        <v>264.7166666666666</v>
+        <v>264.6333333333333</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E223" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F223" t="n">
-        <v>2152.4435</v>
+        <v>200</v>
       </c>
       <c r="G223" t="n">
-        <v>264.85</v>
+        <v>264.7166666666666</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E224" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F224" t="n">
-        <v>200.6722</v>
+        <v>2152.4435</v>
       </c>
       <c r="G224" t="n">
-        <v>264.9666666666666</v>
+        <v>264.85</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>272</v>
       </c>
       <c r="F225" t="n">
-        <v>30.6985</v>
+        <v>200.6722</v>
       </c>
       <c r="G225" t="n">
-        <v>265.0833333333333</v>
+        <v>264.9666666666666</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>272</v>
       </c>
       <c r="F226" t="n">
-        <v>946.9917</v>
+        <v>30.6985</v>
       </c>
       <c r="G226" t="n">
-        <v>265.1833333333333</v>
+        <v>265.0833333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C227" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D227" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E227" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F227" t="n">
-        <v>8498.414500000001</v>
+        <v>946.9917</v>
       </c>
       <c r="G227" t="n">
-        <v>265.2666666666667</v>
+        <v>265.1833333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,24 +6967,27 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C228" t="n">
         <v>270</v>
       </c>
       <c r="D228" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E228" t="n">
         <v>270</v>
       </c>
       <c r="F228" t="n">
-        <v>6375.6464</v>
+        <v>8498.414500000001</v>
       </c>
       <c r="G228" t="n">
-        <v>265.3333333333333</v>
+        <v>265.2666666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E229" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F229" t="n">
-        <v>9028.9229</v>
+        <v>6375.6464</v>
       </c>
       <c r="G229" t="n">
-        <v>265.3833333333333</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E230" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F230" t="n">
-        <v>43.0969</v>
+        <v>9028.9229</v>
       </c>
       <c r="G230" t="n">
-        <v>265.4833333333333</v>
+        <v>265.3833333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>270</v>
       </c>
       <c r="F231" t="n">
-        <v>9151.2986</v>
+        <v>43.0969</v>
       </c>
       <c r="G231" t="n">
-        <v>265.5833333333333</v>
+        <v>265.4833333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6391,21 +7086,24 @@
         <v>270</v>
       </c>
       <c r="C232" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D232" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E232" t="n">
         <v>270</v>
       </c>
       <c r="F232" t="n">
-        <v>356.6683</v>
+        <v>9151.2986</v>
       </c>
       <c r="G232" t="n">
-        <v>265.6833333333333</v>
+        <v>265.5833333333333</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C233" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D233" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E233" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F233" t="n">
-        <v>12694.0183</v>
+        <v>356.6683</v>
       </c>
       <c r="G233" t="n">
-        <v>265.7833333333334</v>
+        <v>265.6833333333333</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>272</v>
       </c>
       <c r="F234" t="n">
-        <v>23187.0208</v>
+        <v>12694.0183</v>
       </c>
       <c r="G234" t="n">
-        <v>265.8833333333333</v>
+        <v>265.7833333333334</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6478,12 +7182,15 @@
         <v>272</v>
       </c>
       <c r="F235" t="n">
-        <v>20531.7316</v>
+        <v>23187.0208</v>
       </c>
       <c r="G235" t="n">
-        <v>266</v>
+        <v>265.8833333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6504,12 +7211,15 @@
         <v>272</v>
       </c>
       <c r="F236" t="n">
-        <v>2000</v>
+        <v>20531.7316</v>
       </c>
       <c r="G236" t="n">
-        <v>266.1166666666667</v>
+        <v>266</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E237" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F237" t="n">
-        <v>2251.0794</v>
+        <v>2000</v>
       </c>
       <c r="G237" t="n">
-        <v>266.25</v>
+        <v>266.1166666666667</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E238" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F238" t="n">
-        <v>984.7626</v>
+        <v>2251.0794</v>
       </c>
       <c r="G238" t="n">
-        <v>266.3833333333333</v>
+        <v>266.25</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C239" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D239" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E239" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F239" t="n">
-        <v>191.3931</v>
+        <v>984.7626</v>
       </c>
       <c r="G239" t="n">
-        <v>266.45</v>
+        <v>266.3833333333333</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6599,21 +7318,24 @@
         <v>272</v>
       </c>
       <c r="C240" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D240" t="n">
         <v>272</v>
       </c>
       <c r="E240" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F240" t="n">
-        <v>710.2437</v>
+        <v>191.3931</v>
       </c>
       <c r="G240" t="n">
-        <v>266.5333333333334</v>
+        <v>266.45</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6634,12 +7356,15 @@
         <v>272</v>
       </c>
       <c r="F241" t="n">
-        <v>40.9045</v>
+        <v>710.2437</v>
       </c>
       <c r="G241" t="n">
-        <v>266.6333333333333</v>
+        <v>266.5333333333334</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6651,21 +7376,24 @@
         <v>272</v>
       </c>
       <c r="C242" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D242" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E242" t="n">
         <v>272</v>
       </c>
       <c r="F242" t="n">
-        <v>2535.7524</v>
+        <v>40.9045</v>
       </c>
       <c r="G242" t="n">
-        <v>266.75</v>
+        <v>266.6333333333333</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,7 +7402,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C243" t="n">
         <v>274</v>
@@ -6683,15 +7411,18 @@
         <v>274</v>
       </c>
       <c r="E243" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F243" t="n">
-        <v>100</v>
+        <v>2535.7524</v>
       </c>
       <c r="G243" t="n">
-        <v>266.9</v>
+        <v>266.75</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +7431,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C244" t="n">
         <v>274</v>
@@ -6709,15 +7440,18 @@
         <v>274</v>
       </c>
       <c r="E244" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F244" t="n">
-        <v>314.2591</v>
+        <v>100</v>
       </c>
       <c r="G244" t="n">
-        <v>267.05</v>
+        <v>266.9</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E245" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F245" t="n">
-        <v>123.9375</v>
+        <v>314.2591</v>
       </c>
       <c r="G245" t="n">
-        <v>267.1666666666667</v>
+        <v>267.05</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E246" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F246" t="n">
-        <v>111.8571</v>
+        <v>123.9375</v>
       </c>
       <c r="G246" t="n">
-        <v>267.3</v>
+        <v>267.1666666666667</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E247" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F247" t="n">
-        <v>8420.4511</v>
+        <v>111.8571</v>
       </c>
       <c r="G247" t="n">
-        <v>267.4166666666667</v>
+        <v>267.3</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6816,12 +7559,15 @@
         <v>272</v>
       </c>
       <c r="F248" t="n">
-        <v>3259.225</v>
+        <v>8420.4511</v>
       </c>
       <c r="G248" t="n">
-        <v>267.5333333333334</v>
+        <v>267.4166666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6830,24 +7576,27 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E249" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F249" t="n">
-        <v>2536.4422</v>
+        <v>3259.225</v>
       </c>
       <c r="G249" t="n">
-        <v>267.65</v>
+        <v>267.5333333333334</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,12 +7617,15 @@
         <v>271</v>
       </c>
       <c r="F250" t="n">
-        <v>4002.26</v>
+        <v>2536.4422</v>
       </c>
       <c r="G250" t="n">
-        <v>267.7666666666667</v>
+        <v>267.65</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6882,24 +7634,27 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C251" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D251" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E251" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F251" t="n">
-        <v>40496.1375</v>
+        <v>4002.26</v>
       </c>
       <c r="G251" t="n">
-        <v>267.8333333333333</v>
+        <v>267.7666666666667</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C252" t="n">
         <v>269</v>
       </c>
       <c r="D252" t="n">
+        <v>270</v>
+      </c>
+      <c r="E252" t="n">
         <v>269</v>
       </c>
-      <c r="E252" t="n">
-        <v>268</v>
-      </c>
       <c r="F252" t="n">
-        <v>2340.4313</v>
+        <v>40496.1375</v>
       </c>
       <c r="G252" t="n">
-        <v>267.8833333333333</v>
+        <v>267.8333333333333</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>268</v>
       </c>
       <c r="C253" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D253" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E253" t="n">
         <v>268</v>
       </c>
       <c r="F253" t="n">
-        <v>688.1143</v>
+        <v>2340.4313</v>
       </c>
       <c r="G253" t="n">
-        <v>267.9333333333333</v>
+        <v>267.8833333333333</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E254" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F254" t="n">
-        <v>9.933</v>
+        <v>688.1143</v>
       </c>
       <c r="G254" t="n">
-        <v>268</v>
+        <v>267.9333333333333</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E255" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F255" t="n">
-        <v>1243.8604</v>
+        <v>9.933</v>
       </c>
       <c r="G255" t="n">
-        <v>268.0333333333334</v>
+        <v>268</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,24 +7779,27 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E256" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F256" t="n">
-        <v>4134.7267</v>
+        <v>1243.8604</v>
       </c>
       <c r="G256" t="n">
-        <v>268.1166666666667</v>
+        <v>268.0333333333334</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E257" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F257" t="n">
-        <v>193.5037</v>
+        <v>4134.7267</v>
       </c>
       <c r="G257" t="n">
-        <v>268.25</v>
+        <v>268.1166666666667</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C258" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D258" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E258" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F258" t="n">
-        <v>11876.7145</v>
+        <v>193.5037</v>
       </c>
       <c r="G258" t="n">
-        <v>268.3666666666667</v>
+        <v>268.25</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C259" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D259" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E259" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F259" t="n">
-        <v>6135.2776</v>
+        <v>11876.7145</v>
       </c>
       <c r="G259" t="n">
-        <v>268.5</v>
+        <v>268.3666666666667</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7131,9 +7910,12 @@
         <v>6135.2776</v>
       </c>
       <c r="G260" t="n">
-        <v>268.65</v>
+        <v>268.5</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E261" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F261" t="n">
-        <v>4311.9338</v>
+        <v>6135.2776</v>
       </c>
       <c r="G261" t="n">
-        <v>268.8166666666667</v>
+        <v>268.65</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,7 +7953,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C262" t="n">
         <v>272</v>
@@ -7177,15 +7962,18 @@
         <v>272</v>
       </c>
       <c r="E262" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F262" t="n">
-        <v>3167.074</v>
+        <v>4311.9338</v>
       </c>
       <c r="G262" t="n">
-        <v>268.9833333333333</v>
+        <v>268.8166666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7197,21 +7985,24 @@
         <v>271</v>
       </c>
       <c r="C263" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D263" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E263" t="n">
         <v>271</v>
       </c>
       <c r="F263" t="n">
-        <v>415.6821</v>
+        <v>3167.074</v>
       </c>
       <c r="G263" t="n">
-        <v>269.1333333333333</v>
+        <v>268.9833333333333</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,21 +8014,24 @@
         <v>271</v>
       </c>
       <c r="C264" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D264" t="n">
         <v>271</v>
       </c>
       <c r="E264" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F264" t="n">
-        <v>216.7661</v>
+        <v>415.6821</v>
       </c>
       <c r="G264" t="n">
-        <v>269.2666666666667</v>
+        <v>269.1333333333333</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7249,21 +8043,24 @@
         <v>271</v>
       </c>
       <c r="C265" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D265" t="n">
         <v>271</v>
       </c>
       <c r="E265" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F265" t="n">
-        <v>1791.4531</v>
+        <v>216.7661</v>
       </c>
       <c r="G265" t="n">
-        <v>269.4166666666667</v>
+        <v>269.2666666666667</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>271</v>
       </c>
       <c r="F266" t="n">
-        <v>789.789</v>
+        <v>1791.4531</v>
       </c>
       <c r="G266" t="n">
-        <v>269.5666666666667</v>
+        <v>269.4166666666667</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7310,12 +8110,15 @@
         <v>271</v>
       </c>
       <c r="F267" t="n">
-        <v>1184.6836</v>
+        <v>789.789</v>
       </c>
       <c r="G267" t="n">
-        <v>269.7</v>
+        <v>269.5666666666667</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7336,12 +8139,15 @@
         <v>271</v>
       </c>
       <c r="F268" t="n">
-        <v>1184.6837</v>
+        <v>1184.6836</v>
       </c>
       <c r="G268" t="n">
-        <v>269.85</v>
+        <v>269.7</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7350,24 +8156,27 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E269" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F269" t="n">
-        <v>9325.7348</v>
+        <v>1184.6837</v>
       </c>
       <c r="G269" t="n">
-        <v>270.0333333333334</v>
+        <v>269.85</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E270" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F270" t="n">
-        <v>10109.6557</v>
+        <v>9325.7348</v>
       </c>
       <c r="G270" t="n">
-        <v>270.2333333333333</v>
+        <v>270.0333333333334</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7414,12 +8226,15 @@
         <v>274</v>
       </c>
       <c r="F271" t="n">
-        <v>1061.0857</v>
+        <v>10109.6557</v>
       </c>
       <c r="G271" t="n">
-        <v>270.4166666666667</v>
+        <v>270.2333333333333</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7440,12 +8255,15 @@
         <v>274</v>
       </c>
       <c r="F272" t="n">
-        <v>1168.6986</v>
+        <v>1061.0857</v>
       </c>
       <c r="G272" t="n">
-        <v>270.6</v>
+        <v>270.4166666666667</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E273" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F273" t="n">
-        <v>3658.448</v>
+        <v>1168.6986</v>
       </c>
       <c r="G273" t="n">
-        <v>270.7833333333334</v>
+        <v>270.6</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7489,15 +8310,18 @@
         <v>275</v>
       </c>
       <c r="E274" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F274" t="n">
-        <v>10798.0704</v>
+        <v>3658.448</v>
       </c>
       <c r="G274" t="n">
-        <v>271</v>
+        <v>270.7833333333334</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>275</v>
       </c>
       <c r="C275" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D275" t="n">
         <v>275</v>
       </c>
       <c r="E275" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F275" t="n">
-        <v>948</v>
+        <v>10798.0704</v>
       </c>
       <c r="G275" t="n">
-        <v>271.1833333333333</v>
+        <v>271</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C276" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D276" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E276" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F276" t="n">
-        <v>10</v>
+        <v>948</v>
       </c>
       <c r="G276" t="n">
-        <v>271.3333333333333</v>
+        <v>271.1833333333333</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D277" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E277" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F277" t="n">
-        <v>21531.9138</v>
+        <v>10</v>
       </c>
       <c r="G277" t="n">
-        <v>271.4166666666667</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7587,21 +8420,24 @@
         <v>275</v>
       </c>
       <c r="C278" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D278" t="n">
         <v>275</v>
       </c>
       <c r="E278" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F278" t="n">
-        <v>27936.0819</v>
+        <v>21531.9138</v>
       </c>
       <c r="G278" t="n">
-        <v>271.5166666666667</v>
+        <v>271.4166666666667</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7613,21 +8449,24 @@
         <v>275</v>
       </c>
       <c r="C279" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D279" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E279" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F279" t="n">
-        <v>15634.8711</v>
+        <v>27936.0819</v>
       </c>
       <c r="G279" t="n">
-        <v>271.6333333333333</v>
+        <v>271.5166666666667</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,10 +8475,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>275</v>
+      </c>
+      <c r="C280" t="n">
         <v>276</v>
-      </c>
-      <c r="C280" t="n">
-        <v>277</v>
       </c>
       <c r="D280" t="n">
         <v>277</v>
@@ -7648,12 +8487,15 @@
         <v>275</v>
       </c>
       <c r="F280" t="n">
-        <v>15914.54930866426</v>
+        <v>15634.8711</v>
       </c>
       <c r="G280" t="n">
-        <v>271.75</v>
+        <v>271.6333333333333</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7665,21 +8507,24 @@
         <v>276</v>
       </c>
       <c r="C281" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D281" t="n">
         <v>277</v>
       </c>
       <c r="E281" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F281" t="n">
-        <v>957.5409</v>
+        <v>15914.54930866426</v>
       </c>
       <c r="G281" t="n">
-        <v>271.8666666666667</v>
+        <v>271.75</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7691,7 +8536,7 @@
         <v>276</v>
       </c>
       <c r="C282" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D282" t="n">
         <v>277</v>
@@ -7700,12 +8545,15 @@
         <v>276</v>
       </c>
       <c r="F282" t="n">
-        <v>6476.2987</v>
+        <v>957.5409</v>
       </c>
       <c r="G282" t="n">
-        <v>271.9833333333333</v>
+        <v>271.8666666666667</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7714,7 +8562,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C283" t="n">
         <v>277</v>
@@ -7723,15 +8571,18 @@
         <v>277</v>
       </c>
       <c r="E283" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F283" t="n">
-        <v>27714.8797</v>
+        <v>6476.2987</v>
       </c>
       <c r="G283" t="n">
-        <v>272.0833333333333</v>
+        <v>271.9833333333333</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7740,24 +8591,27 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C284" t="n">
         <v>277</v>
       </c>
       <c r="D284" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E284" t="n">
         <v>277</v>
       </c>
       <c r="F284" t="n">
-        <v>28679.55582230216</v>
+        <v>27714.8797</v>
       </c>
       <c r="G284" t="n">
-        <v>272.1666666666667</v>
+        <v>272.0833333333333</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7766,25 +8620,28 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C285" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D285" t="n">
         <v>278</v>
       </c>
       <c r="E285" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F285" t="n">
-        <v>2760.129977697842</v>
+        <v>28679.55582230216</v>
       </c>
       <c r="G285" t="n">
-        <v>272.2666666666667</v>
+        <v>272.1666666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -7792,24 +8649,27 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>276</v>
+      </c>
+      <c r="C286" t="n">
         <v>278</v>
       </c>
-      <c r="C286" t="n">
-        <v>279</v>
-      </c>
       <c r="D286" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E286" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F286" t="n">
-        <v>12326.4634</v>
+        <v>2760.129977697842</v>
       </c>
       <c r="G286" t="n">
-        <v>272.3833333333333</v>
+        <v>272.2666666666667</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7821,21 +8681,24 @@
         <v>278</v>
       </c>
       <c r="C287" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D287" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E287" t="n">
         <v>278</v>
       </c>
       <c r="F287" t="n">
-        <v>34174.11570464286</v>
+        <v>12326.4634</v>
       </c>
       <c r="G287" t="n">
-        <v>272.55</v>
+        <v>272.3833333333333</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7844,7 +8707,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C288" t="n">
         <v>280</v>
@@ -7853,15 +8716,18 @@
         <v>280</v>
       </c>
       <c r="E288" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F288" t="n">
-        <v>8361.1499</v>
+        <v>34174.11570464286</v>
       </c>
       <c r="G288" t="n">
-        <v>272.7166666666666</v>
+        <v>272.55</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7882,13 +8748,16 @@
         <v>280</v>
       </c>
       <c r="F289" t="n">
-        <v>4656.766</v>
+        <v>8361.1499</v>
       </c>
       <c r="G289" t="n">
-        <v>272.9</v>
+        <v>272.7166666666666</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -7896,25 +8765,28 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E290" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F290" t="n">
-        <v>791.9175</v>
+        <v>4656.766</v>
       </c>
       <c r="G290" t="n">
-        <v>273.05</v>
+        <v>272.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -7925,22 +8797,25 @@
         <v>279</v>
       </c>
       <c r="C291" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D291" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E291" t="n">
         <v>279</v>
       </c>
       <c r="F291" t="n">
-        <v>5147.6248</v>
+        <v>791.9175</v>
       </c>
       <c r="G291" t="n">
-        <v>273.2166666666666</v>
+        <v>273.05</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -7948,7 +8823,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C292" t="n">
         <v>280</v>
@@ -7957,15 +8832,18 @@
         <v>280</v>
       </c>
       <c r="E292" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F292" t="n">
-        <v>153.1571428571428</v>
+        <v>5147.6248</v>
       </c>
       <c r="G292" t="n">
-        <v>273.3666666666667</v>
+        <v>273.2166666666666</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7986,13 +8864,16 @@
         <v>280</v>
       </c>
       <c r="F293" t="n">
-        <v>1363.2</v>
+        <v>153.1571428571428</v>
       </c>
       <c r="G293" t="n">
-        <v>273.5</v>
+        <v>273.3666666666667</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -8000,24 +8881,27 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C294" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D294" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E294" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F294" t="n">
-        <v>12254.1426</v>
+        <v>1363.2</v>
       </c>
       <c r="G294" t="n">
-        <v>273.6</v>
+        <v>273.5</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8026,25 +8910,28 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C295" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D295" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E295" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F295" t="n">
-        <v>2641.9677</v>
+        <v>12254.1426</v>
       </c>
       <c r="G295" t="n">
-        <v>273.7333333333333</v>
+        <v>273.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
+      </c>
+      <c r="I295" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -8064,12 +8951,15 @@
         <v>280</v>
       </c>
       <c r="F296" t="n">
-        <v>2540.6358</v>
+        <v>2641.9677</v>
       </c>
       <c r="G296" t="n">
-        <v>273.8666666666667</v>
+        <v>273.7333333333333</v>
       </c>
       <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8078,24 +8968,27 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D297" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E297" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F297" t="n">
-        <v>184.5996</v>
+        <v>2540.6358</v>
       </c>
       <c r="G297" t="n">
-        <v>273.9666666666666</v>
+        <v>273.8666666666667</v>
       </c>
       <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8107,21 +9000,24 @@
         <v>281</v>
       </c>
       <c r="C298" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D298" t="n">
         <v>281</v>
       </c>
       <c r="E298" t="n">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F298" t="n">
-        <v>1579.1619</v>
+        <v>184.5996</v>
       </c>
       <c r="G298" t="n">
-        <v>274.0833333333333</v>
+        <v>273.9666666666666</v>
       </c>
       <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8130,24 +9026,27 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E299" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F299" t="n">
-        <v>162.3361</v>
+        <v>1579.1619</v>
       </c>
       <c r="G299" t="n">
-        <v>274.2666666666667</v>
+        <v>274.0833333333333</v>
       </c>
       <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8168,12 +9067,15 @@
         <v>282</v>
       </c>
       <c r="F300" t="n">
-        <v>319.5141</v>
+        <v>162.3361</v>
       </c>
       <c r="G300" t="n">
-        <v>274.4333333333333</v>
+        <v>274.2666666666667</v>
       </c>
       <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8185,21 +9087,24 @@
         <v>282</v>
       </c>
       <c r="C301" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D301" t="n">
         <v>282</v>
       </c>
       <c r="E301" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F301" t="n">
-        <v>7422.3475</v>
+        <v>319.5141</v>
       </c>
       <c r="G301" t="n">
-        <v>274.5666666666667</v>
+        <v>274.4333333333333</v>
       </c>
       <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8211,21 +9116,24 @@
         <v>282</v>
       </c>
       <c r="C302" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D302" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E302" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F302" t="n">
-        <v>18245.9543</v>
+        <v>7422.3475</v>
       </c>
       <c r="G302" t="n">
-        <v>274.7166666666666</v>
+        <v>274.5666666666667</v>
       </c>
       <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8237,21 +9145,24 @@
         <v>282</v>
       </c>
       <c r="C303" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D303" t="n">
+        <v>283</v>
+      </c>
+      <c r="E303" t="n">
         <v>282</v>
       </c>
-      <c r="E303" t="n">
-        <v>276</v>
-      </c>
       <c r="F303" t="n">
-        <v>36762.9324</v>
+        <v>18245.9543</v>
       </c>
       <c r="G303" t="n">
-        <v>274.75</v>
+        <v>274.7166666666666</v>
       </c>
       <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8260,24 +9171,27 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C304" t="n">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D304" t="n">
         <v>282</v>
       </c>
       <c r="E304" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F304" t="n">
-        <v>23798.1455</v>
+        <v>36762.9324</v>
       </c>
       <c r="G304" t="n">
-        <v>274.8833333333333</v>
+        <v>274.75</v>
       </c>
       <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,24 +9200,27 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C305" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D305" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E305" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F305" t="n">
-        <v>689.9724</v>
+        <v>23798.1455</v>
       </c>
       <c r="G305" t="n">
-        <v>274.9666666666666</v>
+        <v>274.8833333333333</v>
       </c>
       <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8312,24 +9229,27 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C306" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D306" t="n">
         <v>279</v>
       </c>
       <c r="E306" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F306" t="n">
-        <v>6175.9538</v>
+        <v>689.9724</v>
       </c>
       <c r="G306" t="n">
-        <v>275.0666666666667</v>
+        <v>274.9666666666666</v>
       </c>
       <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8338,24 +9258,27 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C307" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D307" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E307" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F307" t="n">
-        <v>18.4595</v>
+        <v>6175.9538</v>
       </c>
       <c r="G307" t="n">
-        <v>275.1666666666667</v>
+        <v>275.0666666666667</v>
       </c>
       <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8367,21 +9290,24 @@
         <v>278</v>
       </c>
       <c r="C308" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D308" t="n">
         <v>278</v>
       </c>
       <c r="E308" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F308" t="n">
-        <v>396.3633</v>
+        <v>18.4595</v>
       </c>
       <c r="G308" t="n">
-        <v>275.25</v>
+        <v>275.1666666666667</v>
       </c>
       <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,24 +9316,27 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C309" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D309" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E309" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F309" t="n">
-        <v>5806.669</v>
+        <v>396.3633</v>
       </c>
       <c r="G309" t="n">
-        <v>275.3166666666667</v>
+        <v>275.25</v>
       </c>
       <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8416,24 +9345,27 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C310" t="n">
         <v>275</v>
       </c>
       <c r="D310" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E310" t="n">
         <v>274</v>
       </c>
       <c r="F310" t="n">
-        <v>1465.8896</v>
+        <v>5806.669</v>
       </c>
       <c r="G310" t="n">
-        <v>275.3833333333333</v>
+        <v>275.3166666666667</v>
       </c>
       <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8445,21 +9377,24 @@
         <v>274</v>
       </c>
       <c r="C311" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D311" t="n">
+        <v>275</v>
+      </c>
+      <c r="E311" t="n">
         <v>274</v>
       </c>
-      <c r="E311" t="n">
-        <v>273</v>
-      </c>
       <c r="F311" t="n">
-        <v>12.1582</v>
+        <v>1465.8896</v>
       </c>
       <c r="G311" t="n">
-        <v>275.45</v>
+        <v>275.3833333333333</v>
       </c>
       <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8468,24 +9403,27 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C312" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D312" t="n">
         <v>274</v>
       </c>
       <c r="E312" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F312" t="n">
-        <v>7606.3462</v>
+        <v>12.1582</v>
       </c>
       <c r="G312" t="n">
-        <v>275.5333333333334</v>
+        <v>275.45</v>
       </c>
       <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8494,7 +9432,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C313" t="n">
         <v>274</v>
@@ -8503,15 +9441,18 @@
         <v>274</v>
       </c>
       <c r="E313" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F313" t="n">
-        <v>1949.3682</v>
+        <v>7606.3462</v>
       </c>
       <c r="G313" t="n">
-        <v>275.6333333333333</v>
+        <v>275.5333333333334</v>
       </c>
       <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8523,21 +9464,24 @@
         <v>273</v>
       </c>
       <c r="C314" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D314" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E314" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F314" t="n">
-        <v>3585.3198</v>
+        <v>1949.3682</v>
       </c>
       <c r="G314" t="n">
-        <v>275.7333333333333</v>
+        <v>275.6333333333333</v>
       </c>
       <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8546,7 +9490,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C315" t="n">
         <v>275</v>
@@ -8558,12 +9502,15 @@
         <v>273</v>
       </c>
       <c r="F315" t="n">
-        <v>1567.4706</v>
+        <v>3585.3198</v>
       </c>
       <c r="G315" t="n">
-        <v>275.8666666666667</v>
+        <v>275.7333333333333</v>
       </c>
       <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8575,21 +9522,24 @@
         <v>274</v>
       </c>
       <c r="C316" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D316" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E316" t="n">
         <v>273</v>
       </c>
       <c r="F316" t="n">
-        <v>3730.4382</v>
+        <v>1567.4706</v>
       </c>
       <c r="G316" t="n">
-        <v>275.9333333333333</v>
+        <v>275.8666666666667</v>
       </c>
       <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8598,10 +9548,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
+        <v>274</v>
+      </c>
+      <c r="C317" t="n">
         <v>273</v>
-      </c>
-      <c r="C317" t="n">
-        <v>274</v>
       </c>
       <c r="D317" t="n">
         <v>274</v>
@@ -8610,12 +9560,15 @@
         <v>273</v>
       </c>
       <c r="F317" t="n">
-        <v>6844.6088</v>
+        <v>3730.4382</v>
       </c>
       <c r="G317" t="n">
-        <v>276</v>
+        <v>275.9333333333333</v>
       </c>
       <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8624,24 +9577,27 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C318" t="n">
         <v>274</v>
       </c>
       <c r="D318" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E318" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F318" t="n">
-        <v>3</v>
+        <v>6844.6088</v>
       </c>
       <c r="G318" t="n">
-        <v>276.0833333333333</v>
+        <v>276</v>
       </c>
       <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8659,15 +9615,18 @@
         <v>275</v>
       </c>
       <c r="E319" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F319" t="n">
-        <v>617.1507</v>
+        <v>3</v>
       </c>
       <c r="G319" t="n">
-        <v>276.15</v>
+        <v>276.0833333333333</v>
       </c>
       <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8676,24 +9635,27 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
+        <v>275</v>
+      </c>
+      <c r="C320" t="n">
+        <v>274</v>
+      </c>
+      <c r="D320" t="n">
+        <v>275</v>
+      </c>
+      <c r="E320" t="n">
         <v>273</v>
       </c>
-      <c r="C320" t="n">
-        <v>272</v>
-      </c>
-      <c r="D320" t="n">
-        <v>273</v>
-      </c>
-      <c r="E320" t="n">
-        <v>272</v>
-      </c>
       <c r="F320" t="n">
-        <v>3202</v>
+        <v>617.1507</v>
       </c>
       <c r="G320" t="n">
-        <v>276.1833333333333</v>
+        <v>276.15</v>
       </c>
       <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8705,541 +9667,24 @@
         <v>273</v>
       </c>
       <c r="C321" t="n">
+        <v>272</v>
+      </c>
+      <c r="D321" t="n">
         <v>273</v>
       </c>
-      <c r="D321" t="n">
-        <v>274</v>
-      </c>
       <c r="E321" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F321" t="n">
-        <v>290.0527</v>
+        <v>3202</v>
       </c>
       <c r="G321" t="n">
-        <v>276.2</v>
+        <v>276.1833333333333</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>274</v>
-      </c>
-      <c r="C322" t="n">
-        <v>274</v>
-      </c>
-      <c r="D322" t="n">
-        <v>274</v>
-      </c>
-      <c r="E322" t="n">
-        <v>274</v>
-      </c>
-      <c r="F322" t="n">
-        <v>1854.9434</v>
-      </c>
-      <c r="G322" t="n">
-        <v>276.2333333333333</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>273</v>
-      </c>
-      <c r="C323" t="n">
-        <v>273</v>
-      </c>
-      <c r="D323" t="n">
-        <v>273</v>
-      </c>
-      <c r="E323" t="n">
-        <v>273</v>
-      </c>
-      <c r="F323" t="n">
-        <v>1321.899</v>
-      </c>
-      <c r="G323" t="n">
-        <v>276.2666666666667</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>274</v>
-      </c>
-      <c r="C324" t="n">
-        <v>276</v>
-      </c>
-      <c r="D324" t="n">
-        <v>276</v>
-      </c>
-      <c r="E324" t="n">
-        <v>273</v>
-      </c>
-      <c r="F324" t="n">
-        <v>739.2587</v>
-      </c>
-      <c r="G324" t="n">
-        <v>276.3666666666667</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>276</v>
-      </c>
-      <c r="C325" t="n">
-        <v>276</v>
-      </c>
-      <c r="D325" t="n">
-        <v>276</v>
-      </c>
-      <c r="E325" t="n">
-        <v>276</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1</v>
-      </c>
-      <c r="G325" t="n">
-        <v>276.45</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>275</v>
-      </c>
-      <c r="C326" t="n">
-        <v>276</v>
-      </c>
-      <c r="D326" t="n">
-        <v>276</v>
-      </c>
-      <c r="E326" t="n">
-        <v>273</v>
-      </c>
-      <c r="F326" t="n">
-        <v>19.8211</v>
-      </c>
-      <c r="G326" t="n">
-        <v>276.5333333333334</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>275</v>
-      </c>
-      <c r="C327" t="n">
-        <v>272</v>
-      </c>
-      <c r="D327" t="n">
-        <v>275</v>
-      </c>
-      <c r="E327" t="n">
-        <v>270</v>
-      </c>
-      <c r="F327" t="n">
-        <v>6738.138</v>
-      </c>
-      <c r="G327" t="n">
-        <v>276.55</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>270</v>
-      </c>
-      <c r="C328" t="n">
-        <v>270</v>
-      </c>
-      <c r="D328" t="n">
-        <v>270</v>
-      </c>
-      <c r="E328" t="n">
-        <v>270</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1337.117</v>
-      </c>
-      <c r="G328" t="n">
-        <v>276.5333333333334</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>272</v>
-      </c>
-      <c r="C329" t="n">
-        <v>272</v>
-      </c>
-      <c r="D329" t="n">
-        <v>272</v>
-      </c>
-      <c r="E329" t="n">
-        <v>272</v>
-      </c>
-      <c r="F329" t="n">
-        <v>158</v>
-      </c>
-      <c r="G329" t="n">
-        <v>276.5166666666667</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>272</v>
-      </c>
-      <c r="C330" t="n">
-        <v>272</v>
-      </c>
-      <c r="D330" t="n">
-        <v>272</v>
-      </c>
-      <c r="E330" t="n">
-        <v>272</v>
-      </c>
-      <c r="F330" t="n">
-        <v>2</v>
-      </c>
-      <c r="G330" t="n">
-        <v>276.4833333333333</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>272</v>
-      </c>
-      <c r="C331" t="n">
-        <v>272</v>
-      </c>
-      <c r="D331" t="n">
-        <v>273</v>
-      </c>
-      <c r="E331" t="n">
-        <v>272</v>
-      </c>
-      <c r="F331" t="n">
-        <v>1840.9131</v>
-      </c>
-      <c r="G331" t="n">
-        <v>276.45</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>272</v>
-      </c>
-      <c r="C332" t="n">
-        <v>272</v>
-      </c>
-      <c r="D332" t="n">
-        <v>272</v>
-      </c>
-      <c r="E332" t="n">
-        <v>272</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1</v>
-      </c>
-      <c r="G332" t="n">
-        <v>276.4166666666667</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>271</v>
-      </c>
-      <c r="C333" t="n">
-        <v>272</v>
-      </c>
-      <c r="D333" t="n">
-        <v>272</v>
-      </c>
-      <c r="E333" t="n">
-        <v>270</v>
-      </c>
-      <c r="F333" t="n">
-        <v>586.7712</v>
-      </c>
-      <c r="G333" t="n">
-        <v>276.3666666666667</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>272</v>
-      </c>
-      <c r="C334" t="n">
-        <v>273</v>
-      </c>
-      <c r="D334" t="n">
-        <v>273</v>
-      </c>
-      <c r="E334" t="n">
-        <v>271</v>
-      </c>
-      <c r="F334" t="n">
-        <v>738.2547</v>
-      </c>
-      <c r="G334" t="n">
-        <v>276.3333333333333</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>272</v>
-      </c>
-      <c r="C335" t="n">
-        <v>272</v>
-      </c>
-      <c r="D335" t="n">
-        <v>272</v>
-      </c>
-      <c r="E335" t="n">
-        <v>272</v>
-      </c>
-      <c r="F335" t="n">
-        <v>1337.117</v>
-      </c>
-      <c r="G335" t="n">
-        <v>276.3</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>273</v>
-      </c>
-      <c r="C336" t="n">
-        <v>273</v>
-      </c>
-      <c r="D336" t="n">
-        <v>273</v>
-      </c>
-      <c r="E336" t="n">
-        <v>273</v>
-      </c>
-      <c r="F336" t="n">
-        <v>1</v>
-      </c>
-      <c r="G336" t="n">
-        <v>276.25</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>272</v>
-      </c>
-      <c r="C337" t="n">
-        <v>270</v>
-      </c>
-      <c r="D337" t="n">
-        <v>272</v>
-      </c>
-      <c r="E337" t="n">
-        <v>270</v>
-      </c>
-      <c r="F337" t="n">
-        <v>38.8121</v>
-      </c>
-      <c r="G337" t="n">
-        <v>276.1833333333333</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>270</v>
-      </c>
-      <c r="C338" t="n">
-        <v>270</v>
-      </c>
-      <c r="D338" t="n">
-        <v>270</v>
-      </c>
-      <c r="E338" t="n">
-        <v>270</v>
-      </c>
-      <c r="F338" t="n">
-        <v>2027.9979</v>
-      </c>
-      <c r="G338" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>270</v>
-      </c>
-      <c r="C339" t="n">
-        <v>270</v>
-      </c>
-      <c r="D339" t="n">
-        <v>270</v>
-      </c>
-      <c r="E339" t="n">
-        <v>270</v>
-      </c>
-      <c r="F339" t="n">
-        <v>5647.6931</v>
-      </c>
-      <c r="G339" t="n">
-        <v>276</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>272</v>
-      </c>
-      <c r="C340" t="n">
-        <v>272</v>
-      </c>
-      <c r="D340" t="n">
-        <v>272</v>
-      </c>
-      <c r="E340" t="n">
-        <v>272</v>
-      </c>
-      <c r="F340" t="n">
-        <v>1</v>
-      </c>
-      <c r="G340" t="n">
-        <v>275.9166666666667</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>272</v>
-      </c>
-      <c r="C341" t="n">
-        <v>272</v>
-      </c>
-      <c r="D341" t="n">
-        <v>272</v>
-      </c>
-      <c r="E341" t="n">
-        <v>272</v>
-      </c>
-      <c r="F341" t="n">
-        <v>2441.8193</v>
-      </c>
-      <c r="G341" t="n">
-        <v>275.85</v>
-      </c>
-      <c r="H341" t="n">
+      <c r="I321" t="n">
         <v>0</v>
       </c>
     </row>
